--- a/Code/Results/Cases/Case_3_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.580368163907053</v>
+        <v>1.070437712832501</v>
       </c>
       <c r="C2">
-        <v>0.2696252653873898</v>
+        <v>0.1544272847382331</v>
       </c>
       <c r="D2">
-        <v>0.1270154445663394</v>
+        <v>0.1002109442336376</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.422299113556321</v>
+        <v>3.227658738300818</v>
       </c>
       <c r="G2">
-        <v>0.0008310991287387092</v>
+        <v>0.002564428601896984</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4264107062659974</v>
+        <v>0.3563639396866449</v>
       </c>
       <c r="K2">
-        <v>1.755537387601805</v>
+        <v>1.146897048502979</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.835786776592755</v>
+        <v>2.978408188479008</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.379987506776075</v>
+        <v>1.023983169975196</v>
       </c>
       <c r="C3">
-        <v>0.2336415717489047</v>
+        <v>0.1460728885522826</v>
       </c>
       <c r="D3">
-        <v>0.1099958599382092</v>
+        <v>0.09680468056698999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.260887961386615</v>
+        <v>3.200675288591654</v>
       </c>
       <c r="G3">
-        <v>0.0008383816281962738</v>
+        <v>0.002568925322529711</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3762472591826338</v>
+        <v>0.345809630878378</v>
       </c>
       <c r="K3">
-        <v>1.530058025349945</v>
+        <v>1.094593424626254</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.846139774799624</v>
+        <v>2.984968347130135</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.259091340471798</v>
+        <v>0.9961247356684453</v>
       </c>
       <c r="C4">
-        <v>0.2119381984414446</v>
+        <v>0.1410441682637043</v>
       </c>
       <c r="D4">
-        <v>0.09967401557004507</v>
+        <v>0.09478024708539579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.165870523281384</v>
+        <v>3.185585212343668</v>
       </c>
       <c r="G4">
-        <v>0.0008429778569288702</v>
+        <v>0.002571831294354167</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3461644103524861</v>
+        <v>0.3395497127130227</v>
       </c>
       <c r="K4">
-        <v>1.394025504489349</v>
+        <v>1.063200346796833</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.854557135976222</v>
+        <v>2.989725682073413</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.210301289758149</v>
+        <v>0.9849389949196166</v>
       </c>
       <c r="C5">
-        <v>0.2031797223181826</v>
+        <v>0.1390201696869013</v>
       </c>
       <c r="D5">
-        <v>0.09549587809637217</v>
+        <v>0.09397213234264257</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.128096377875877</v>
+        <v>3.179806794617974</v>
       </c>
       <c r="G5">
-        <v>0.000844883425106831</v>
+        <v>0.002573052076331739</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3340665347773211</v>
+        <v>0.3370539578197338</v>
       </c>
       <c r="K5">
-        <v>1.339126682468816</v>
+        <v>1.050588337664209</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.858478380185574</v>
+        <v>2.991847379353089</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202226781675591</v>
+        <v>0.9830916744228375</v>
       </c>
       <c r="C6">
-        <v>0.2017302224418671</v>
+        <v>0.1386856073090712</v>
       </c>
       <c r="D6">
-        <v>0.09480368312129883</v>
+        <v>0.09383896385287471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.121878874878377</v>
+        <v>3.178869674335687</v>
       </c>
       <c r="G6">
-        <v>0.0008452018438073725</v>
+        <v>0.002573256998956941</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3320668859091853</v>
+        <v>0.3366428677729942</v>
       </c>
       <c r="K6">
-        <v>1.330041140849232</v>
+        <v>1.048505035771456</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.859158409556301</v>
+        <v>2.992210730516973</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.258431491068052</v>
+        <v>0.9959732060032707</v>
       </c>
       <c r="C7">
-        <v>0.2118197467993923</v>
+        <v>0.1410167698617926</v>
       </c>
       <c r="D7">
-        <v>0.09961755924054216</v>
+        <v>0.09476928030223064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.165357360770443</v>
+        <v>3.185505781734506</v>
       </c>
       <c r="G7">
-        <v>0.0008430034227284427</v>
+        <v>0.002571847610053448</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3460006262606186</v>
+        <v>0.3395158308313029</v>
       </c>
       <c r="K7">
-        <v>1.393283041579053</v>
+        <v>1.063029524951048</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.854608065025786</v>
+        <v>2.989753555385576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.510794497581287</v>
+        <v>1.054281947999328</v>
       </c>
       <c r="C8">
-        <v>0.2571291796465971</v>
+        <v>0.151525663027428</v>
       </c>
       <c r="D8">
-        <v>0.121117870587824</v>
+        <v>0.0990225539928673</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.36574426972453</v>
+        <v>3.218047665626486</v>
       </c>
       <c r="G8">
-        <v>0.0008335849927694206</v>
+        <v>0.002565949056387259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4089532586289977</v>
+        <v>0.3526789143253097</v>
       </c>
       <c r="K8">
-        <v>1.677246730754547</v>
+        <v>1.128712666099659</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.838911869595876</v>
+        <v>2.980518529802254</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.025701873680021</v>
+        <v>1.173925428783832</v>
       </c>
       <c r="C9">
-        <v>0.3497009288750235</v>
+        <v>0.1729414251965409</v>
       </c>
       <c r="D9">
-        <v>0.1645040582654076</v>
+        <v>0.1078954991876486</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.79522309245192</v>
+        <v>3.29362775868168</v>
       </c>
       <c r="G9">
-        <v>0.0008160462561850047</v>
+        <v>0.002555526697383634</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5390590196869312</v>
+        <v>0.3802530769592494</v>
       </c>
       <c r="K9">
-        <v>2.256777880319362</v>
+        <v>1.263274244723959</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.825818949265468</v>
+        <v>2.968213202767643</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.420939627146367</v>
+        <v>1.265104391091484</v>
       </c>
       <c r="C10">
-        <v>0.4209441174978679</v>
+        <v>0.1891798809668046</v>
       </c>
       <c r="D10">
-        <v>0.197446118712449</v>
+        <v>0.1147405325648521</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.139316191911064</v>
+        <v>3.356393907898962</v>
       </c>
       <c r="G10">
-        <v>0.0008036375176964037</v>
+        <v>0.002548559418574855</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6401945948207697</v>
+        <v>0.4016049869356522</v>
       </c>
       <c r="K10">
-        <v>2.701858551930343</v>
+        <v>1.365702891367448</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.82904694220818</v>
+        <v>2.962736460933939</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.605616254969277</v>
+        <v>1.307306310940305</v>
       </c>
       <c r="C11">
-        <v>0.454301421037826</v>
+        <v>0.1966793713060895</v>
       </c>
       <c r="D11">
-        <v>0.212744715540083</v>
+        <v>0.1179257370118592</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.303647678466348</v>
+        <v>3.386534257789862</v>
       </c>
       <c r="G11">
-        <v>0.0007980734078362445</v>
+        <v>0.002545537991415712</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6877866358452138</v>
+        <v>0.4115602826003482</v>
       </c>
       <c r="K11">
-        <v>2.909914278733169</v>
+        <v>1.413087844235406</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.833830471195199</v>
+        <v>2.961024500689277</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.676363025087255</v>
+        <v>1.323391867323494</v>
       </c>
       <c r="C12">
-        <v>0.4670926653195409</v>
+        <v>0.1995355987410221</v>
       </c>
       <c r="D12">
-        <v>0.2185905202681795</v>
+        <v>0.1191421699345909</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.367148622502299</v>
+        <v>3.398176967987666</v>
       </c>
       <c r="G12">
-        <v>0.0007959759147983803</v>
+        <v>0.002544415014223902</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7060723044888562</v>
+        <v>0.4153652295625676</v>
       </c>
       <c r="K12">
-        <v>2.98963377567145</v>
+        <v>1.431145672766291</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.836168768580606</v>
+        <v>2.960488763310963</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.661088327957941</v>
+        <v>1.319922894937065</v>
       </c>
       <c r="C13">
-        <v>0.4643303457287971</v>
+        <v>0.1989197302046364</v>
       </c>
       <c r="D13">
-        <v>0.2173290545485571</v>
+        <v>0.1188797327353655</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.353413391221949</v>
+        <v>3.395659293127949</v>
       </c>
       <c r="G13">
-        <v>0.0007964272601221452</v>
+        <v>0.002544655927770975</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7021218201925876</v>
+        <v>0.4145442011627694</v>
       </c>
       <c r="K13">
-        <v>2.972421009500891</v>
+        <v>1.427251508212379</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.835640876646636</v>
+        <v>2.960599131034172</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.611419638007192</v>
+        <v>1.308627580147117</v>
       </c>
       <c r="C14">
-        <v>0.4553504236519927</v>
+        <v>0.1969140266415081</v>
       </c>
       <c r="D14">
-        <v>0.2132245537410711</v>
+        <v>0.1180256079299227</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.308845518106352</v>
+        <v>3.38748751155012</v>
       </c>
       <c r="G14">
-        <v>0.0007979006679813312</v>
+        <v>0.002545445179821915</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6892855060919629</v>
+        <v>0.4118726130445225</v>
       </c>
       <c r="K14">
-        <v>2.916453344849089</v>
+        <v>1.414571180782588</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.834011975703334</v>
+        <v>2.960978167014559</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.581105648093796</v>
+        <v>1.301722510631976</v>
       </c>
       <c r="C15">
-        <v>0.4498714777397765</v>
+        <v>0.1956876068818758</v>
       </c>
       <c r="D15">
-        <v>0.210717511831632</v>
+        <v>0.1175037687562934</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.281716849526674</v>
+        <v>3.382511936854314</v>
       </c>
       <c r="G15">
-        <v>0.0007988043459561298</v>
+        <v>0.00254593137337604</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6814583537350956</v>
+        <v>0.4102407661648755</v>
       </c>
       <c r="K15">
-        <v>2.88229720045166</v>
+        <v>1.406819001881161</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.833084434924018</v>
+        <v>2.961225007996148</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.408978062427252</v>
+        <v>1.262361008329037</v>
       </c>
       <c r="C16">
-        <v>0.4187851414034469</v>
+        <v>0.188692048958842</v>
       </c>
       <c r="D16">
-        <v>0.1964532441289606</v>
+        <v>0.1145338082298366</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.128746183296869</v>
+        <v>3.35445619077683</v>
       </c>
       <c r="G16">
-        <v>0.0008040025957081696</v>
+        <v>0.002548759844957499</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6371191901753548</v>
+        <v>0.4009592811915752</v>
       </c>
       <c r="K16">
-        <v>2.68838480062135</v>
+        <v>1.362622116073709</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.828805188797091</v>
+        <v>2.962864065229624</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.304709102929792</v>
+        <v>1.238399807045198</v>
       </c>
       <c r="C17">
-        <v>0.3999732176562247</v>
+        <v>0.1844294301613161</v>
       </c>
       <c r="D17">
-        <v>0.1877878615483581</v>
+        <v>0.1127301135633161</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.037003364727184</v>
+        <v>3.33765218771336</v>
       </c>
       <c r="G17">
-        <v>0.0008072108050549054</v>
+        <v>0.002550532851561983</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6103485709547414</v>
+        <v>0.3953276117049995</v>
       </c>
       <c r="K17">
-        <v>2.570944422408644</v>
+        <v>1.335711445907407</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.827062937178468</v>
+        <v>2.964069533392234</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.245188361062105</v>
+        <v>1.224686089453883</v>
       </c>
       <c r="C18">
-        <v>0.3892408230506419</v>
+        <v>0.181988267751052</v>
       </c>
       <c r="D18">
-        <v>0.1828327324617618</v>
+        <v>0.1116993930050825</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.984959689462329</v>
+        <v>3.328136357791124</v>
       </c>
       <c r="G18">
-        <v>0.0008090638149892171</v>
+        <v>0.002551566577521758</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5950976305674516</v>
+        <v>0.3921112058164056</v>
       </c>
       <c r="K18">
-        <v>2.503913003566765</v>
+        <v>1.320307427327407</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.826369536699346</v>
+        <v>2.964836223057532</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.225110091910324</v>
+        <v>1.220054547772122</v>
       </c>
       <c r="C19">
-        <v>0.3856214245785168</v>
+        <v>0.1811635452265818</v>
       </c>
       <c r="D19">
-        <v>0.1811597707721404</v>
+        <v>0.1113515622972869</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.967458709027795</v>
+        <v>3.324940091603821</v>
       </c>
       <c r="G19">
-        <v>0.000809692600326055</v>
+        <v>0.002551918977180101</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5899581202428124</v>
+        <v>0.3910260908094045</v>
       </c>
       <c r="K19">
-        <v>2.48130242541248</v>
+        <v>1.315104631395258</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.826186349398682</v>
+        <v>2.965108392571793</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.315761161480282</v>
+        <v>1.240943463082829</v>
       </c>
       <c r="C20">
-        <v>0.4019665407307116</v>
+        <v>0.1848820968058646</v>
       </c>
       <c r="D20">
-        <v>0.1887072562153946</v>
+        <v>0.1129214247459061</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.046693542268571</v>
+        <v>3.339425534981928</v>
       </c>
       <c r="G20">
-        <v>0.0008068684997879814</v>
+        <v>0.002550342670247553</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6131829096402726</v>
+        <v>0.3959247528400169</v>
       </c>
       <c r="K20">
-        <v>2.583391731361417</v>
+        <v>1.338568439776765</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.827216109467358</v>
+        <v>2.963933615941627</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.625985494501094</v>
+        <v>1.311942445115733</v>
       </c>
       <c r="C21">
-        <v>0.4579835151282907</v>
+        <v>0.197502705903446</v>
       </c>
       <c r="D21">
-        <v>0.214428654240038</v>
+        <v>0.1182762064667457</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.321900369168446</v>
+        <v>3.389881533811462</v>
       </c>
       <c r="G21">
-        <v>0.0007974676518659</v>
+        <v>0.002545212783641242</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6930483828273992</v>
+        <v>0.4126563687117368</v>
       </c>
       <c r="K21">
-        <v>2.932865961674935</v>
+        <v>1.418292596587463</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.834475693795937</v>
+        <v>2.960863776803208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.833539911537173</v>
+        <v>1.358954331994255</v>
       </c>
       <c r="C22">
-        <v>0.4955367756416251</v>
+        <v>0.2058462778707337</v>
       </c>
       <c r="D22">
-        <v>0.2315495844583779</v>
+        <v>0.1218357011071873</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.509262365753443</v>
+        <v>3.424193910318934</v>
       </c>
       <c r="G22">
-        <v>0.0007913779657301459</v>
+        <v>0.002541983458828266</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7468013383315366</v>
+        <v>0.4237961184050931</v>
       </c>
       <c r="K22">
-        <v>3.166779558111386</v>
+        <v>1.471062743109485</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.842319170690899</v>
+        <v>2.959513676255341</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.722284065374083</v>
+        <v>1.333807233400137</v>
       </c>
       <c r="C23">
-        <v>0.475399187057775</v>
+        <v>0.2013843883424897</v>
       </c>
       <c r="D23">
-        <v>0.2223806821755971</v>
+        <v>0.1199304556045746</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.408523153080637</v>
+        <v>3.405758160000573</v>
       </c>
       <c r="G23">
-        <v>0.0007946239299552182</v>
+        <v>0.002543695760846451</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.717957020881073</v>
+        <v>0.4178318086946149</v>
       </c>
       <c r="K23">
-        <v>3.0413840029791</v>
+        <v>1.442837191603587</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.83783118838096</v>
+        <v>2.960174051808295</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.310763210716004</v>
+        <v>1.239793283426877</v>
       </c>
       <c r="C24">
-        <v>0.4010651030838517</v>
+        <v>0.1846774167186993</v>
       </c>
       <c r="D24">
-        <v>0.188291515234198</v>
+        <v>0.1128349135011604</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.042310442255427</v>
+        <v>3.338623353034166</v>
       </c>
       <c r="G24">
-        <v>0.0008070232291783991</v>
+        <v>0.002550428606597377</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6119010721749873</v>
+        <v>0.3956547189602304</v>
       </c>
       <c r="K24">
-        <v>2.577762796903556</v>
+        <v>1.337276583316708</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.827145903884102</v>
+        <v>2.963994834828014</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.883802813216079</v>
+        <v>1.140986588044797</v>
       </c>
       <c r="C25">
-        <v>0.3241663351987256</v>
+        <v>0.1670601969553616</v>
       </c>
       <c r="D25">
-        <v>0.1526048075456714</v>
+        <v>0.1054379876790819</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.674517486092199</v>
+        <v>3.271915111714321</v>
       </c>
       <c r="G25">
-        <v>0.0008207001293713509</v>
+        <v>0.002558224484122872</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5030050409104092</v>
+        <v>0.3726029760051119</v>
       </c>
       <c r="K25">
-        <v>2.097040145480804</v>
+        <v>1.22624963706707</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.827267457255275</v>
+        <v>2.970918104427085</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.070437712832501</v>
+        <v>1.580368163906854</v>
       </c>
       <c r="C2">
-        <v>0.1544272847382331</v>
+        <v>0.2696252653870772</v>
       </c>
       <c r="D2">
-        <v>0.1002109442336376</v>
+        <v>0.1270154445663678</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.227658738300818</v>
+        <v>2.422299113556264</v>
       </c>
       <c r="G2">
-        <v>0.002564428601896984</v>
+        <v>0.0008310991286305075</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3563639396866449</v>
+        <v>0.4264107062659122</v>
       </c>
       <c r="K2">
-        <v>1.146897048502979</v>
+        <v>1.755537387601805</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.978408188479008</v>
+        <v>1.835786776592741</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.023983169975196</v>
+        <v>1.379987506775961</v>
       </c>
       <c r="C3">
-        <v>0.1460728885522826</v>
+        <v>0.2336415717491036</v>
       </c>
       <c r="D3">
-        <v>0.09680468056698999</v>
+        <v>0.109995859938067</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.200675288591654</v>
+        <v>2.260887961386601</v>
       </c>
       <c r="G3">
-        <v>0.002568925322529711</v>
+        <v>0.0008383816282723578</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.345809630878378</v>
+        <v>0.3762472591825201</v>
       </c>
       <c r="K3">
-        <v>1.094593424626254</v>
+        <v>1.53005802535003</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.984968347130135</v>
+        <v>1.846139774799596</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9961247356684453</v>
+        <v>1.25909134047177</v>
       </c>
       <c r="C4">
-        <v>0.1410441682637043</v>
+        <v>0.2119381984411746</v>
       </c>
       <c r="D4">
-        <v>0.09478024708539579</v>
+        <v>0.09967401557003086</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.185585212343668</v>
+        <v>2.165870523281413</v>
       </c>
       <c r="G4">
-        <v>0.002571831294354167</v>
+        <v>0.0008429778569563438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3395497127130227</v>
+        <v>0.3461644103524719</v>
       </c>
       <c r="K4">
-        <v>1.063200346796833</v>
+        <v>1.394025504489434</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.989725682073413</v>
+        <v>1.854557135976208</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9849389949196166</v>
+        <v>1.210301289758235</v>
       </c>
       <c r="C5">
-        <v>0.1390201696869013</v>
+        <v>0.2031797223181542</v>
       </c>
       <c r="D5">
-        <v>0.09397213234264257</v>
+        <v>0.09549587809634374</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.179806794617974</v>
+        <v>2.128096377875863</v>
       </c>
       <c r="G5">
-        <v>0.002573052076331739</v>
+        <v>0.0008448834250610514</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3370539578197338</v>
+        <v>0.3340665347773495</v>
       </c>
       <c r="K5">
-        <v>1.050588337664209</v>
+        <v>1.339126682468759</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.991847379353089</v>
+        <v>1.858478380185588</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9830916744228375</v>
+        <v>1.202226781675563</v>
       </c>
       <c r="C6">
-        <v>0.1386856073090712</v>
+        <v>0.2017302224417676</v>
       </c>
       <c r="D6">
-        <v>0.09383896385287471</v>
+        <v>0.09480368312119936</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.178869674335687</v>
+        <v>2.121878874878334</v>
       </c>
       <c r="G6">
-        <v>0.002573256998956941</v>
+        <v>0.0008452018438490833</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3366428677729942</v>
+        <v>0.3320668859091427</v>
       </c>
       <c r="K6">
-        <v>1.048505035771456</v>
+        <v>1.330041140849232</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.992210730516973</v>
+        <v>1.859158409556258</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9959732060032707</v>
+        <v>1.258431491068109</v>
       </c>
       <c r="C7">
-        <v>0.1410167698617926</v>
+        <v>0.2118197467990939</v>
       </c>
       <c r="D7">
-        <v>0.09476928030223064</v>
+        <v>0.09961755924065585</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.185505781734506</v>
+        <v>2.165357360770429</v>
       </c>
       <c r="G7">
-        <v>0.002571847610053448</v>
+        <v>0.0008430034226990808</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3395158308313029</v>
+        <v>0.3460006262606896</v>
       </c>
       <c r="K7">
-        <v>1.063029524951048</v>
+        <v>1.39328304157911</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.989753555385576</v>
+        <v>1.854608065025772</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.054281947999328</v>
+        <v>1.510794497581287</v>
       </c>
       <c r="C8">
-        <v>0.151525663027428</v>
+        <v>0.2571291796465971</v>
       </c>
       <c r="D8">
-        <v>0.0990225539928673</v>
+        <v>0.1211178705876819</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.218047665626486</v>
+        <v>2.36574426972453</v>
       </c>
       <c r="G8">
-        <v>0.002565949056387259</v>
+        <v>0.0008335849927697773</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3526789143253097</v>
+        <v>0.4089532586289977</v>
       </c>
       <c r="K8">
-        <v>1.128712666099659</v>
+        <v>1.677246730754433</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.980518529802254</v>
+        <v>1.838911869595933</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.173925428783832</v>
+        <v>2.025701873679964</v>
       </c>
       <c r="C9">
-        <v>0.1729414251965409</v>
+        <v>0.3497009288750235</v>
       </c>
       <c r="D9">
-        <v>0.1078954991876486</v>
+        <v>0.1645040582655213</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.29362775868168</v>
+        <v>2.79522309245192</v>
       </c>
       <c r="G9">
-        <v>0.002555526697383634</v>
+        <v>0.0008160462561854488</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3802530769592494</v>
+        <v>0.5390590196869454</v>
       </c>
       <c r="K9">
-        <v>1.263274244723959</v>
+        <v>2.25677788031939</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.968213202767643</v>
+        <v>1.825818949265539</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.265104391091484</v>
+        <v>2.420939627146367</v>
       </c>
       <c r="C10">
-        <v>0.1891798809668046</v>
+        <v>0.4209441174974131</v>
       </c>
       <c r="D10">
-        <v>0.1147405325648521</v>
+        <v>0.1974461187123353</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.356393907898962</v>
+        <v>3.139316191911064</v>
       </c>
       <c r="G10">
-        <v>0.002548559418574855</v>
+        <v>0.0008036375176380973</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4016049869356522</v>
+        <v>0.6401945948207839</v>
       </c>
       <c r="K10">
-        <v>1.365702891367448</v>
+        <v>2.701858551930343</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.962736460933939</v>
+        <v>1.82904694220818</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307306310940305</v>
+        <v>2.605616254969334</v>
       </c>
       <c r="C11">
-        <v>0.1966793713060895</v>
+        <v>0.4543014210377976</v>
       </c>
       <c r="D11">
-        <v>0.1179257370118592</v>
+        <v>0.212744715540083</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.386534257789862</v>
+        <v>3.303647678466348</v>
       </c>
       <c r="G11">
-        <v>0.002545537991415712</v>
+        <v>0.0007980734078947302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4115602826003482</v>
+        <v>0.6877866358450859</v>
       </c>
       <c r="K11">
-        <v>1.413087844235406</v>
+        <v>2.909914278733254</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.961024500689277</v>
+        <v>1.833830471195199</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.323391867323494</v>
+        <v>2.676363025087312</v>
       </c>
       <c r="C12">
-        <v>0.1995355987410221</v>
+        <v>0.4670926653197967</v>
       </c>
       <c r="D12">
-        <v>0.1191421699345909</v>
+        <v>0.2185905202681653</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.398176967987666</v>
+        <v>3.367148622502299</v>
       </c>
       <c r="G12">
-        <v>0.002544415014223902</v>
+        <v>0.0007959759147422046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4153652295625676</v>
+        <v>0.7060723044887993</v>
       </c>
       <c r="K12">
-        <v>1.431145672766291</v>
+        <v>2.989633775671479</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.960488763310963</v>
+        <v>1.836168768580592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.319922894937065</v>
+        <v>2.661088327957884</v>
       </c>
       <c r="C13">
-        <v>0.1989197302046364</v>
+        <v>0.4643303457285413</v>
       </c>
       <c r="D13">
-        <v>0.1188797327353655</v>
+        <v>0.2173290545485571</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.395659293127949</v>
+        <v>3.353413391221949</v>
       </c>
       <c r="G13">
-        <v>0.002544655927770975</v>
+        <v>0.0007964272601222563</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4145442011627694</v>
+        <v>0.7021218201927013</v>
       </c>
       <c r="K13">
-        <v>1.427251508212379</v>
+        <v>2.972421009500891</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.960599131034172</v>
+        <v>1.835640876646636</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.308627580147117</v>
+        <v>2.611419638007249</v>
       </c>
       <c r="C14">
-        <v>0.1969140266415081</v>
+        <v>0.4553504236519643</v>
       </c>
       <c r="D14">
-        <v>0.1180256079299227</v>
+        <v>0.2132245537409432</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.38748751155012</v>
+        <v>3.308845518106352</v>
       </c>
       <c r="G14">
-        <v>0.002545445179821915</v>
+        <v>0.0007979006680384922</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4118726130445225</v>
+        <v>0.6892855060921192</v>
       </c>
       <c r="K14">
-        <v>1.414571180782588</v>
+        <v>2.916453344849032</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.960978167014559</v>
+        <v>1.834011975703319</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.301722510631976</v>
+        <v>2.581105648093512</v>
       </c>
       <c r="C15">
-        <v>0.1956876068818758</v>
+        <v>0.4498714777398334</v>
       </c>
       <c r="D15">
-        <v>0.1175037687562934</v>
+        <v>0.2107175118316604</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.382511936854314</v>
+        <v>3.281716849526731</v>
       </c>
       <c r="G15">
-        <v>0.00254593137337604</v>
+        <v>0.0007988043459012963</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4102407661648755</v>
+        <v>0.6814583537350103</v>
       </c>
       <c r="K15">
-        <v>1.406819001881161</v>
+        <v>2.88229720045166</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.961225007996148</v>
+        <v>1.833084434924018</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262361008329037</v>
+        <v>2.408978062427252</v>
       </c>
       <c r="C16">
-        <v>0.188692048958842</v>
+        <v>0.4187851414035038</v>
       </c>
       <c r="D16">
-        <v>0.1145338082298366</v>
+        <v>0.1964532441290885</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.35445619077683</v>
+        <v>3.128746183296869</v>
       </c>
       <c r="G16">
-        <v>0.002548759844957499</v>
+        <v>0.0008040025955943717</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4009592811915752</v>
+        <v>0.637119190175369</v>
       </c>
       <c r="K16">
-        <v>1.362622116073709</v>
+        <v>2.688384800621378</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.962864065229624</v>
+        <v>1.828805188797162</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.238399807045198</v>
+        <v>2.304709102929849</v>
       </c>
       <c r="C17">
-        <v>0.1844294301613161</v>
+        <v>0.3999732176562247</v>
       </c>
       <c r="D17">
-        <v>0.1127301135633161</v>
+        <v>0.1877878615483866</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.33765218771336</v>
+        <v>3.037003364727184</v>
       </c>
       <c r="G17">
-        <v>0.002550532851561983</v>
+        <v>0.000807210805111665</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3953276117049995</v>
+        <v>0.6103485709548124</v>
       </c>
       <c r="K17">
-        <v>1.335711445907407</v>
+        <v>2.570944422408729</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.964069533392234</v>
+        <v>1.827062937178482</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.224686089453883</v>
+        <v>2.245188361062219</v>
       </c>
       <c r="C18">
-        <v>0.181988267751052</v>
+        <v>0.3892408230504145</v>
       </c>
       <c r="D18">
-        <v>0.1116993930050825</v>
+        <v>0.1828327324618471</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.328136357791124</v>
+        <v>2.984959689462357</v>
       </c>
       <c r="G18">
-        <v>0.002551566577521758</v>
+        <v>0.000809063814928712</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3921112058164056</v>
+        <v>0.5950976305674089</v>
       </c>
       <c r="K18">
-        <v>1.320307427327407</v>
+        <v>2.503913003566851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.964836223057532</v>
+        <v>1.826369536699346</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.220054547772122</v>
+        <v>2.225110091910153</v>
       </c>
       <c r="C19">
-        <v>0.1811635452265818</v>
+        <v>0.3856214245784599</v>
       </c>
       <c r="D19">
-        <v>0.1113515622972869</v>
+        <v>0.1811597707721404</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.324940091603821</v>
+        <v>2.967458709027824</v>
       </c>
       <c r="G19">
-        <v>0.002551918977180101</v>
+        <v>0.0008096926002127012</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3910260908094045</v>
+        <v>0.5899581202428124</v>
       </c>
       <c r="K19">
-        <v>1.315104631395258</v>
+        <v>2.481302425412565</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.965108392571793</v>
+        <v>1.826186349398682</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.240943463082829</v>
+        <v>2.315761161480395</v>
       </c>
       <c r="C20">
-        <v>0.1848820968058646</v>
+        <v>0.4019665407309105</v>
       </c>
       <c r="D20">
-        <v>0.1129214247459061</v>
+        <v>0.1887072562154799</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.339425534981928</v>
+        <v>3.046693542268628</v>
       </c>
       <c r="G20">
-        <v>0.002550342670247553</v>
+        <v>0.0008068684998412219</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3959247528400169</v>
+        <v>0.6131829096402015</v>
       </c>
       <c r="K20">
-        <v>1.338568439776765</v>
+        <v>2.583391731361331</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.963933615941627</v>
+        <v>1.827216109467429</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.311942445115733</v>
+        <v>2.625985494501265</v>
       </c>
       <c r="C21">
-        <v>0.197502705903446</v>
+        <v>0.4579835151280633</v>
       </c>
       <c r="D21">
-        <v>0.1182762064667457</v>
+        <v>0.2144286542400238</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.389881533811462</v>
+        <v>3.321900369168389</v>
       </c>
       <c r="G21">
-        <v>0.002545212783641242</v>
+        <v>0.0007974676520400046</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4126563687117368</v>
+        <v>0.6930483828275129</v>
       </c>
       <c r="K21">
-        <v>1.418292596587463</v>
+        <v>2.93286596167502</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.960863776803208</v>
+        <v>1.834475693795866</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.358954331994255</v>
+        <v>2.833539911537287</v>
       </c>
       <c r="C22">
-        <v>0.2058462778707337</v>
+        <v>0.4955367756413978</v>
       </c>
       <c r="D22">
-        <v>0.1218357011071873</v>
+        <v>0.23154958445825</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.424193910318934</v>
+        <v>3.509262365753443</v>
       </c>
       <c r="G22">
-        <v>0.002541983458828266</v>
+        <v>0.000791377965843779</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4237961184050931</v>
+        <v>0.746801338331565</v>
       </c>
       <c r="K22">
-        <v>1.471062743109485</v>
+        <v>3.16677955811133</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.959513676255341</v>
+        <v>1.842319170690885</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.333807233400137</v>
+        <v>2.722284065374197</v>
       </c>
       <c r="C23">
-        <v>0.2013843883424897</v>
+        <v>0.4753991870579739</v>
       </c>
       <c r="D23">
-        <v>0.1199304556045746</v>
+        <v>0.2223806821757108</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.405758160000573</v>
+        <v>3.40852315308058</v>
       </c>
       <c r="G23">
-        <v>0.002543695760846451</v>
+        <v>0.0007946239300127571</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4178318086946149</v>
+        <v>0.7179570208810446</v>
       </c>
       <c r="K23">
-        <v>1.442837191603587</v>
+        <v>3.0413840029791</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.960174051808295</v>
+        <v>1.83783118838096</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.239793283426877</v>
+        <v>2.310763210715947</v>
       </c>
       <c r="C24">
-        <v>0.1846774167186993</v>
+        <v>0.4010651030840791</v>
       </c>
       <c r="D24">
-        <v>0.1128349135011604</v>
+        <v>0.1882915152339706</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.338623353034166</v>
+        <v>3.042310442255427</v>
       </c>
       <c r="G24">
-        <v>0.002550428606597377</v>
+        <v>0.0008070232292310031</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3956547189602304</v>
+        <v>0.6119010721749021</v>
       </c>
       <c r="K24">
-        <v>1.337276583316708</v>
+        <v>2.577762796903613</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.963994834828014</v>
+        <v>1.827145903884102</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140986588044797</v>
+        <v>1.88380281321605</v>
       </c>
       <c r="C25">
-        <v>0.1670601969553616</v>
+        <v>0.324166335198754</v>
       </c>
       <c r="D25">
-        <v>0.1054379876790819</v>
+        <v>0.1526048075456856</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.271915111714321</v>
+        <v>2.674517486092185</v>
       </c>
       <c r="G25">
-        <v>0.002558224484122872</v>
+        <v>0.0008207001293218941</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3726029760051119</v>
+        <v>0.5030050409103808</v>
       </c>
       <c r="K25">
-        <v>1.22624963706707</v>
+        <v>2.097040145481003</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.970918104427085</v>
+        <v>1.827267457255232</v>
       </c>
       <c r="O25">
         <v>0</v>
